--- a/venv/SVMCAPPdataset8Apr2020_TargetOnly_19Apr2020_1048pm_fakeDummyNums.xlsx
+++ b/venv/SVMCAPPdataset8Apr2020_TargetOnly_19Apr2020_1048pm_fakeDummyNums.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hachidori\PycharmProjects\SVM_CAPP_GSIP_2nd\venv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A281005-C696-4D8E-9520-0A6EB72B3244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12412B8C-A5F2-43B1-BE92-6718C6079F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CF047386-B92B-4CF4-85BB-87664CFF1C61}"/>
+    <workbookView xWindow="-17595" yWindow="0" windowWidth="17595" windowHeight="10920" xr2:uid="{CF047386-B92B-4CF4-85BB-87664CFF1C61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="188">
   <si>
     <t>DummyNum4:</t>
   </si>
@@ -851,7 +851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -917,9 +917,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1597,8 +1594,8 @@
   <dimension ref="A1:H7463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G521"/>
+      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G474" sqref="G474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -12515,7 +12512,9 @@
       <c r="F474" s="18">
         <v>3</v>
       </c>
-      <c r="G474" s="23"/>
+      <c r="G474" s="19" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="15" t="s">
@@ -13277,13 +13276,13 @@
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A508" s="24" t="s">
+      <c r="A508" s="23" t="s">
         <v>123</v>
       </c>
       <c r="B508" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C508" s="25">
+      <c r="C508" s="24">
         <v>2020</v>
       </c>
       <c r="D508" s="18">
@@ -13295,7 +13294,7 @@
       <c r="F508" s="18">
         <v>3</v>
       </c>
-      <c r="G508" s="26" t="s">
+      <c r="G508" s="25" t="s">
         <v>145</v>
       </c>
     </row>
@@ -34429,7 +34428,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:G521" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:G473 A474:G521" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
